--- a/BackTest/2020-01-15 BackTest XVG.xlsx
+++ b/BackTest/2020-01-15 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-350757.86335125</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-353382.8703512499</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-312025.34285125</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-429503.91285125</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-181760.2772512499</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,19 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.92</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +884,23 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +925,23 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +966,19 @@
         <v>-906507242.5263512</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.92</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +1003,23 @@
         <v>-906507242.5263512</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>3.949</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1044,23 @@
         <v>-906504742.5263512</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>3.949</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1085,23 @@
         <v>-906504242.5263512</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>3.95</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1126,23 @@
         <v>-906632932.6402512</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>3.989</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1169,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1208,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1247,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1286,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,22 +1323,21 @@
         <v>-906803331.3099512</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>3.92</v>
       </c>
-      <c r="K26" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1362,22 +1364,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1404,22 +1403,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1444,18 +1440,23 @@
         <v>-906725512.5880512</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>3.975</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1482,16 +1483,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1518,16 +1522,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1554,16 +1561,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1588,18 +1598,23 @@
         <v>-906833639.0092274</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>3.905</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1624,18 +1639,23 @@
         <v>-906825069.4907274</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>3.902</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1660,18 +1680,23 @@
         <v>-906881375.5146275</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>3.905</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1696,22 +1721,23 @@
         <v>-906377389.9141275</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.888</v>
       </c>
       <c r="J36" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1736,24 +1762,23 @@
         <v>-906282887.3793274</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>3.889</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1780,22 +1805,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1822,16 +1844,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1858,16 +1883,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1894,16 +1922,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1930,16 +1961,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1966,16 +2000,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2002,16 +2039,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2038,16 +2078,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2072,22 +2115,21 @@
         <v>-909207440.4435273</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2112,26 +2154,21 @@
         <v>-909207098.1335274</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>3.851</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2158,22 +2195,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2198,26 +2232,21 @@
         <v>-909296940.1333274</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2242,26 +2271,23 @@
         <v>-909296940.1333274</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3.844</v>
       </c>
       <c r="J50" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2286,26 +2312,23 @@
         <v>-909296940.1333274</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3.844</v>
       </c>
       <c r="J51" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2330,26 +2353,23 @@
         <v>-909284987.6186478</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3.844</v>
       </c>
       <c r="J52" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>3.92</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2376,22 +2396,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2418,22 +2435,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2460,22 +2474,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2502,22 +2513,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2544,22 +2552,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2586,22 +2591,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2628,22 +2630,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2668,24 +2667,23 @@
         <v>-909476300.9164479</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>3.918</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2710,24 +2708,23 @@
         <v>-909491723.7721479</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>3.918</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2752,24 +2749,23 @@
         <v>-909451256.6520479</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>3.869</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2796,22 +2792,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2838,22 +2831,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2880,22 +2870,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2922,22 +2909,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2964,22 +2948,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3006,22 +2987,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3048,22 +3026,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3090,22 +3065,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3132,22 +3104,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3174,22 +3143,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3216,22 +3182,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3258,22 +3221,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3300,22 +3260,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3342,22 +3299,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3384,22 +3338,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3426,22 +3377,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3468,22 +3416,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3510,22 +3455,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3552,22 +3494,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3594,22 +3533,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3636,22 +3572,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3678,22 +3611,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3720,22 +3650,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3762,22 +3689,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3804,22 +3728,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3846,22 +3767,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3888,22 +3806,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3930,22 +3845,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3972,22 +3884,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4014,22 +3923,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4056,22 +3962,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4098,22 +4001,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4140,22 +4040,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4182,22 +4079,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4224,22 +4118,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4266,22 +4157,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4306,24 +4194,23 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4350,22 +4237,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4392,22 +4276,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4434,22 +4315,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4476,22 +4354,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4516,24 +4391,23 @@
         <v>-909831602.3560263</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>3.9</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4560,24 +4434,21 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest XVG.xlsx
+++ b/BackTest/2020-01-15 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>-181760.2772512499</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-906507242.5263512</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-906507242.5263512</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-906504242.5263512</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-906632932.6402512</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-906826064.9173511</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-906829820.7961512</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-906863922.0319512</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-906803331.3099512</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-906725512.5880512</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-906725512.5880512</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-906727274.4808275</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-906803941.0092274</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-908749599.6948274</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-909217152.3835274</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2761,10 +2761,14 @@
         <v>-909292801.3356479</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.873</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2797,8 +2801,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2840,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3.873</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2909,17 @@
         <v>-908795718.1569183</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.979</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +2952,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +2989,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3026,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3063,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3100,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3137,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3174,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3211,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,15 +3244,15 @@
         <v>-909614885.3792664</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3.887</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3.887</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,17 +3281,13 @@
         <v>-909276206.6941664</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3.887</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3.887</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3268,17 +3318,13 @@
         <v>-909276206.6941664</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3.887</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3313,7 +3359,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3342,15 +3392,15 @@
         <v>-909346206.6941664</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3379,17 +3429,13 @@
         <v>-909685628.6153665</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>3.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3420,14 +3466,10 @@
         <v>-909592244.7521665</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3461,14 +3503,10 @@
         <v>-909338461.2720263</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.891</v>
-      </c>
-      <c r="J92" t="n">
-        <v>3.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3505,9 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3544,9 +3580,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3580,14 +3614,10 @@
         <v>-909528722.4391263</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3.921</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3624,9 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3663,9 +3691,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3702,9 +3728,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,9 +3765,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3780,9 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3819,9 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,9 +3876,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3897,9 +3913,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3933,12 +3947,12 @@
         <v>-909831602.3560263</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
         <v>3.9</v>
       </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3972,14 +3986,10 @@
         <v>-909831602.3560263</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J105" t="n">
-        <v>3.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3991,6 +4001,6 @@
       <c r="M105" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest XVG.xlsx
+++ b/BackTest/2020-01-15 BackTest XVG.xlsx
@@ -484,7 +484,7 @@
         <v>-350757.86335125</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-353382.8703512499</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-312025.34285125</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-429503.91285125</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-906507242.5263512</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-906507242.5263512</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-906803331.3099512</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-906725512.5880512</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-909217152.3835274</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2563,10 +2563,14 @@
         <v>-908932688.9008479</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2596,11 +2600,19 @@
         <v>-909141823.9008479</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.926</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2641,19 @@
         <v>-909141823.9008479</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2682,19 @@
         <v>-909141823.9008479</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2723,19 @@
         <v>-909140934.3356479</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2764,19 @@
         <v>-909292801.3356479</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2767,9 +2811,13 @@
         <v>3.873</v>
       </c>
       <c r="J72" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+        <v>3.925</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,15 +2846,17 @@
         <v>-909292645.8009479</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.873</v>
+      </c>
       <c r="J73" t="n">
-        <v>3.873</v>
+        <v>3.925</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2841,11 +2891,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>3.873</v>
+        <v>3.925</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2879,8 +2929,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2909,15 +2965,15 @@
         <v>-908795718.1569183</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3.979</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -2951,7 +3007,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2985,10 +3043,14 @@
         <v>-909681091.4040412</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3.935</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3022,10 +3084,14 @@
         <v>-909674840.2132665</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.886</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3062,7 +3128,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3099,7 +3167,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3136,7 +3206,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3173,7 +3245,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3210,7 +3284,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3244,10 +3320,14 @@
         <v>-909614885.3792664</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.887</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3281,10 +3361,14 @@
         <v>-909276206.6941664</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3.887</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3318,10 +3402,14 @@
         <v>-909276206.6941664</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.928</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3358,7 +3446,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3392,10 +3482,14 @@
         <v>-909346206.6941664</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3429,10 +3523,14 @@
         <v>-909685628.6153665</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3466,10 +3564,14 @@
         <v>-909592244.7521665</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3503,10 +3605,14 @@
         <v>-909338461.2720263</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3.891</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3540,10 +3646,14 @@
         <v>-909439500.1435263</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3580,7 +3690,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,10 +3726,14 @@
         <v>-909528722.4391263</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.921</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3654,7 +3770,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3688,10 +3806,14 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3728,7 +3850,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3762,10 +3886,14 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3799,10 +3927,14 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3836,10 +3968,14 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3873,10 +4009,14 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3910,10 +4050,14 @@
         <v>-909831602.3560263</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,7 +4096,9 @@
       <c r="I104" t="n">
         <v>3.9</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3986,10 +4132,14 @@
         <v>-909831602.3560263</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-15 BackTest XVG.xlsx
+++ b/BackTest/2020-01-15 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>452694.23107967</v>
       </c>
       <c r="G2" t="n">
-        <v>-91488.41785124992</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>259269.4455</v>
       </c>
       <c r="G3" t="n">
-        <v>-350757.86335125</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>3.966</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.966</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,21 @@
         <v>2625.007</v>
       </c>
       <c r="G4" t="n">
-        <v>-353382.8703512499</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +543,23 @@
         <v>41357.5275</v>
       </c>
       <c r="G5" t="n">
-        <v>-312025.34285125</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>3.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,23 @@
         <v>117478.57</v>
       </c>
       <c r="G6" t="n">
-        <v>-429503.91285125</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>3.939</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +619,23 @@
         <v>199700.46</v>
       </c>
       <c r="G7" t="n">
-        <v>-429503.91285125</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>3.889</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +657,23 @@
         <v>62881.563</v>
       </c>
       <c r="G8" t="n">
-        <v>-366622.34985125</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>3.889</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +695,21 @@
         <v>184862.0726</v>
       </c>
       <c r="G9" t="n">
-        <v>-181760.2772512499</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +731,21 @@
         <v>153642.0629</v>
       </c>
       <c r="G10" t="n">
-        <v>-181760.2772512499</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +767,21 @@
         <v>906329060</v>
       </c>
       <c r="G11" t="n">
-        <v>-906510820.2772512</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +803,21 @@
         <v>455.86734693</v>
       </c>
       <c r="G12" t="n">
-        <v>-906510820.2772512</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +839,21 @@
         <v>2551.02040816</v>
       </c>
       <c r="G13" t="n">
-        <v>-906510820.2772512</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +875,21 @@
         <v>204824.4473</v>
       </c>
       <c r="G14" t="n">
-        <v>-906510820.2772512</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +911,21 @@
         <v>228087</v>
       </c>
       <c r="G15" t="n">
-        <v>-906510820.2772512</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +947,21 @@
         <v>25636</v>
       </c>
       <c r="G16" t="n">
-        <v>-906510820.2772512</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +983,21 @@
         <v>3577.7509</v>
       </c>
       <c r="G17" t="n">
-        <v>-906507242.5263512</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1019,21 @@
         <v>500</v>
       </c>
       <c r="G18" t="n">
-        <v>-906507242.5263512</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1055,21 @@
         <v>2500</v>
       </c>
       <c r="G19" t="n">
-        <v>-906504742.5263512</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1091,21 @@
         <v>500</v>
       </c>
       <c r="G20" t="n">
-        <v>-906504242.5263512</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1127,21 @@
         <v>128690.1139</v>
       </c>
       <c r="G21" t="n">
-        <v>-906632932.6402512</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1163,21 @@
         <v>193132.2771</v>
       </c>
       <c r="G22" t="n">
-        <v>-906826064.9173511</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1199,21 @@
         <v>3755.8788</v>
       </c>
       <c r="G23" t="n">
-        <v>-906829820.7961512</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9995385779122542</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1235,15 @@
         <v>34101.2358</v>
       </c>
       <c r="G24" t="n">
-        <v>-906863922.0319512</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1265,15 @@
         <v>60590.722</v>
       </c>
       <c r="G25" t="n">
-        <v>-906803331.3099512</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1295,15 @@
         <v>0.0009</v>
       </c>
       <c r="G26" t="n">
-        <v>-906803331.3099512</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1325,15 @@
         <v>77818.7219</v>
       </c>
       <c r="G27" t="n">
-        <v>-906725512.5880512</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1355,15 @@
         <v>1135.61</v>
       </c>
       <c r="G28" t="n">
-        <v>-906725512.5880512</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1385,15 @@
         <v>41294.4223</v>
       </c>
       <c r="G29" t="n">
-        <v>-906725512.5880512</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1415,15 @@
         <v>1761.89277623</v>
       </c>
       <c r="G30" t="n">
-        <v>-906727274.4808275</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1445,15 @@
         <v>76666.5284</v>
       </c>
       <c r="G31" t="n">
-        <v>-906803941.0092274</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1475,15 @@
         <v>10000</v>
       </c>
       <c r="G32" t="n">
-        <v>-906813941.0092274</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1505,15 @@
         <v>19698</v>
       </c>
       <c r="G33" t="n">
-        <v>-906833639.0092274</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1535,15 @@
         <v>8569.5185</v>
       </c>
       <c r="G34" t="n">
-        <v>-906825069.4907274</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1565,15 @@
         <v>56306.0239</v>
       </c>
       <c r="G35" t="n">
-        <v>-906881375.5146275</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1595,15 @@
         <v>503985.6005</v>
       </c>
       <c r="G36" t="n">
-        <v>-906377389.9141275</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1625,15 @@
         <v>94502.53479999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-906282887.3793274</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1655,15 @@
         <v>10000</v>
       </c>
       <c r="G38" t="n">
-        <v>-906272887.3793274</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1685,15 @@
         <v>2476943.6849</v>
       </c>
       <c r="G39" t="n">
-        <v>-908749831.0642275</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1715,15 @@
         <v>231.3694</v>
       </c>
       <c r="G40" t="n">
-        <v>-908749599.6948274</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1745,15 @@
         <v>432552</v>
       </c>
       <c r="G41" t="n">
-        <v>-909182151.6948274</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1775,15 @@
         <v>36188</v>
       </c>
       <c r="G42" t="n">
-        <v>-909182151.6948274</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1805,15 @@
         <v>22849.6887</v>
       </c>
       <c r="G43" t="n">
-        <v>-909205001.3835274</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1835,15 @@
         <v>12151</v>
       </c>
       <c r="G44" t="n">
-        <v>-909217152.3835274</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1865,15 @@
         <v>129562.9999</v>
       </c>
       <c r="G45" t="n">
-        <v>-909217152.3835274</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1895,15 @@
         <v>9711.940000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>-909207440.4435273</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1925,15 @@
         <v>342.31</v>
       </c>
       <c r="G47" t="n">
-        <v>-909207098.1335274</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1955,15 @@
         <v>407.0441</v>
       </c>
       <c r="G48" t="n">
-        <v>-909207098.1335274</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1985,15 @@
         <v>89841.99980000001</v>
       </c>
       <c r="G49" t="n">
-        <v>-909296940.1333274</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2015,15 @@
         <v>9328.809999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-909296940.1333274</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2045,15 @@
         <v>112672.3111</v>
       </c>
       <c r="G51" t="n">
-        <v>-909296940.1333274</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2075,15 @@
         <v>11952.5146796</v>
       </c>
       <c r="G52" t="n">
-        <v>-909284987.6186478</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2105,15 @@
         <v>1927727.187</v>
       </c>
       <c r="G53" t="n">
-        <v>-909284987.6186478</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2135,15 @@
         <v>249924.4763</v>
       </c>
       <c r="G54" t="n">
-        <v>-909284987.6186478</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2165,15 @@
         <v>208441.0016</v>
       </c>
       <c r="G55" t="n">
-        <v>-909493428.6202478</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2195,15 @@
         <v>1121.6519</v>
       </c>
       <c r="G56" t="n">
-        <v>-909492306.9683478</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2225,15 @@
         <v>2789.7382</v>
       </c>
       <c r="G57" t="n">
-        <v>-909489517.2301478</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2255,15 @@
         <v>8698</v>
       </c>
       <c r="G58" t="n">
-        <v>-909498215.2301478</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2285,15 @@
         <v>21914.3137</v>
       </c>
       <c r="G59" t="n">
-        <v>-909476300.9164479</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2315,15 @@
         <v>21288.2563</v>
       </c>
       <c r="G60" t="n">
-        <v>-909476300.9164479</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2345,15 @@
         <v>15422.8557</v>
       </c>
       <c r="G61" t="n">
-        <v>-909491723.7721479</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2375,15 @@
         <v>40467.1201</v>
       </c>
       <c r="G62" t="n">
-        <v>-909451256.6520479</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2405,15 @@
         <v>0.0003</v>
       </c>
       <c r="G63" t="n">
-        <v>-909451256.6520479</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2435,15 @@
         <v>25976</v>
       </c>
       <c r="G64" t="n">
-        <v>-909451256.6520479</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2465,15 @@
         <v>9609</v>
       </c>
       <c r="G65" t="n">
-        <v>-909451256.6520479</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,22 +2495,15 @@
         <v>518567.7512</v>
       </c>
       <c r="G66" t="n">
-        <v>-908932688.9008479</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2597,26 +2525,15 @@
         <v>209135</v>
       </c>
       <c r="G67" t="n">
-        <v>-909141823.9008479</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3.926</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2638,26 +2555,15 @@
         <v>48915</v>
       </c>
       <c r="G68" t="n">
-        <v>-909141823.9008479</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2679,26 +2585,15 @@
         <v>71878.32000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-909141823.9008479</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2720,26 +2615,15 @@
         <v>889.5652</v>
       </c>
       <c r="G70" t="n">
-        <v>-909140934.3356479</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2761,26 +2645,15 @@
         <v>151867</v>
       </c>
       <c r="G71" t="n">
-        <v>-909292801.3356479</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2802,26 +2675,15 @@
         <v>45621</v>
       </c>
       <c r="G72" t="n">
-        <v>-909292801.3356479</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2843,26 +2705,15 @@
         <v>155.5347</v>
       </c>
       <c r="G73" t="n">
-        <v>-909292645.8009479</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3.873</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2884,24 +2735,15 @@
         <v>125019.7542</v>
       </c>
       <c r="G74" t="n">
-        <v>-909417665.5551479</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2923,24 +2765,15 @@
         <v>621947.3982296</v>
       </c>
       <c r="G75" t="n">
-        <v>-908795718.1569183</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2962,24 +2795,15 @@
         <v>211163.99744747</v>
       </c>
       <c r="G76" t="n">
-        <v>-908795718.1569183</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3001,24 +2825,15 @@
         <v>52261.85152293</v>
       </c>
       <c r="G77" t="n">
-        <v>-908847980.0084412</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3040,26 +2855,15 @@
         <v>833111.3956</v>
       </c>
       <c r="G78" t="n">
-        <v>-909681091.4040412</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3.935</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3081,26 +2885,15 @@
         <v>6251.19077463</v>
       </c>
       <c r="G79" t="n">
-        <v>-909674840.2132665</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.886</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3122,24 +2915,15 @@
         <v>6832.1917</v>
       </c>
       <c r="G80" t="n">
-        <v>-909681672.4049665</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3161,24 +2945,15 @@
         <v>87886.9601</v>
       </c>
       <c r="G81" t="n">
-        <v>-909593785.4448664</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3200,24 +2975,15 @@
         <v>36230.9344</v>
       </c>
       <c r="G82" t="n">
-        <v>-909630016.3792664</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3239,24 +3005,15 @@
         <v>15131</v>
       </c>
       <c r="G83" t="n">
-        <v>-909614885.3792664</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3278,24 +3035,15 @@
         <v>277524.5835</v>
       </c>
       <c r="G84" t="n">
-        <v>-909614885.3792664</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3317,26 +3065,15 @@
         <v>79182.42</v>
       </c>
       <c r="G85" t="n">
-        <v>-909614885.3792664</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3.887</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3358,26 +3095,15 @@
         <v>338678.6851</v>
       </c>
       <c r="G86" t="n">
-        <v>-909276206.6941664</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3.887</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3399,26 +3125,15 @@
         <v>743.2361</v>
       </c>
       <c r="G87" t="n">
-        <v>-909276206.6941664</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3440,24 +3155,15 @@
         <v>70000</v>
       </c>
       <c r="G88" t="n">
-        <v>-909346206.6941664</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3479,26 +3185,15 @@
         <v>10000</v>
       </c>
       <c r="G89" t="n">
-        <v>-909346206.6941664</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3520,26 +3215,15 @@
         <v>339421.9212</v>
       </c>
       <c r="G90" t="n">
-        <v>-909685628.6153665</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3561,26 +3245,15 @@
         <v>93383.86320000001</v>
       </c>
       <c r="G91" t="n">
-        <v>-909592244.7521665</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3602,26 +3275,15 @@
         <v>253783.48014025</v>
       </c>
       <c r="G92" t="n">
-        <v>-909338461.2720263</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.891</v>
-      </c>
-      <c r="J92" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3643,26 +3305,15 @@
         <v>101038.8715</v>
       </c>
       <c r="G93" t="n">
-        <v>-909439500.1435263</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J93" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3684,24 +3335,15 @@
         <v>153612.3682</v>
       </c>
       <c r="G94" t="n">
-        <v>-909593112.5117263</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3723,26 +3365,15 @@
         <v>64390.0726</v>
       </c>
       <c r="G95" t="n">
-        <v>-909528722.4391263</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3.921</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3764,24 +3395,15 @@
         <v>82210</v>
       </c>
       <c r="G96" t="n">
-        <v>-909610932.4391263</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3803,26 +3425,15 @@
         <v>5657.4883</v>
       </c>
       <c r="G97" t="n">
-        <v>-909605274.9508263</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="J97" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3844,24 +3455,15 @@
         <v>63018.7781</v>
       </c>
       <c r="G98" t="n">
-        <v>-909605274.9508263</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3883,26 +3485,15 @@
         <v>138232.9436</v>
       </c>
       <c r="G99" t="n">
-        <v>-909605274.9508263</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J99" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3924,26 +3515,15 @@
         <v>1605.08</v>
       </c>
       <c r="G100" t="n">
-        <v>-909605274.9508263</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3965,26 +3545,15 @@
         <v>2.4172</v>
       </c>
       <c r="G101" t="n">
-        <v>-909605274.9508263</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4006,26 +3575,15 @@
         <v>150</v>
       </c>
       <c r="G102" t="n">
-        <v>-909605274.9508263</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J102" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4047,26 +3605,15 @@
         <v>226327.4052</v>
       </c>
       <c r="G103" t="n">
-        <v>-909831602.3560263</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4088,26 +3635,15 @@
         <v>198798.0666</v>
       </c>
       <c r="G104" t="n">
-        <v>-909831602.3560263</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4129,26 +3665,15 @@
         <v>775976.0755</v>
       </c>
       <c r="G105" t="n">
-        <v>-909831602.3560263</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J105" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
